--- a/sample.xlsx
+++ b/sample.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PhasitWo\Desktop\Folders\ElectronProject\mydoc\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A36C38FA-FBC4-4080-8C4A-DAB212DDEE94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="4020" yWindow="1950" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,8 +24,16 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>a</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -330,13 +344,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/sample.xlsx
+++ b/sample.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PhasitWo\Desktop\Folders\ElectronProject\mydoc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ifpotsawat\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A36C38FA-FBC4-4080-8C4A-DAB212DDEE94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06BA6AAE-9149-4302-B593-ED50D30E7E83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4020" yWindow="1950" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="945" yWindow="885" windowWidth="27495" windowHeight="14670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="ต้นฉบับ" sheetId="5" r:id="rId1"/>
+    <sheet name="สำเนา" sheetId="7" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,22 +26,161 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>a</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="30">
+  <si>
+    <t>จำนวน</t>
+  </si>
+  <si>
+    <t>รายการ</t>
+  </si>
+  <si>
+    <t>จำนวนเงิน</t>
+  </si>
+  <si>
+    <t>รวมเงิน</t>
+  </si>
+  <si>
+    <t>ใบเสร็จรับเงิน</t>
+  </si>
+  <si>
+    <t>348 หมู่ 21 ถ.สุรนารายณ์ ต.บ้านเพชร อ.บำเหน็จณรงค์ จ.ชัยภูมิ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">เล่มที่ 008     </t>
+  </si>
+  <si>
+    <t>หน่วยละ</t>
+  </si>
+  <si>
+    <t>บาท</t>
+  </si>
+  <si>
+    <t>สต.</t>
+  </si>
+  <si>
+    <t>ผู้รับเงิน.................................................................................</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           ห้างหุ้นส่วนจำกัด 3พ.รุ่งเรืองศึกษาภัณฑ์                </t>
+  </si>
+  <si>
+    <t>ใบส่งของ</t>
+  </si>
+  <si>
+    <t>เลขที่</t>
+  </si>
+  <si>
+    <t>ลงวันที่</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> เลขประจำตัวผู้เสียภาษีอากร 0363559001282  โทร.081-593-9711 , 044-815-555 ( FAX)</t>
+  </si>
+  <si>
+    <t>ต้นฉบับ</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>เงินสด จำนวน....................................บาท ( .....................................................................................)</t>
+  </si>
+  <si>
+    <t>เช็ค     ธนาคาร............................เลขที่........................วันที่....................จำนวนเงิน.............................บาท</t>
+  </si>
+  <si>
+    <t>สำเนา</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> เลขที่ BILLNUMBER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      วันที่ BILLDATE</t>
+  </si>
+  <si>
+    <t>นาม…NAME</t>
+  </si>
+  <si>
+    <t>ที่อยู่..ADDRESS2</t>
+  </si>
+  <si>
+    <t>DETAIL</t>
+  </si>
+  <si>
+    <t>DELIVERYNUMBER</t>
+  </si>
+  <si>
+    <t>DELIVERYDATE</t>
+  </si>
+  <si>
+    <t>MONEY</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="187" formatCode="_-&quot;฿&quot;* #,##0.00_-;\-&quot;฿&quot;* #,##0.00_-;_-&quot;฿&quot;* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
+      <charset val="222"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="222"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <name val="Angsana New"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <name val="Angsana New"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Angsana New"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <name val="Angsana New"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <name val="Angsana New"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <name val="Angsana New"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <name val="Cordia New"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -51,7 +191,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -59,14 +199,467 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="187" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="187" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="4" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -80,6 +673,370 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>257175</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectangle: Rounded Corners 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="381000" y="8763000"/>
+          <a:ext cx="276225" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="th-TH" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>257175</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rectangle: Rounded Corners 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="371475" y="9058275"/>
+          <a:ext cx="276225" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="th-TH" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>320040</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="14737" t="12908" r="16090" b="18440"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="320040"/>
+          <a:ext cx="876300" cy="853440"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>257175</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectangle: Rounded Corners 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="369570" y="8902065"/>
+          <a:ext cx="276225" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="th-TH" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>257175</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rectangle: Rounded Corners 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="360045" y="9199245"/>
+          <a:ext cx="276225" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="th-TH" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>320040</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="14737" t="12908" r="16090" b="18440"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="320040"/>
+          <a:ext cx="876300" cy="853440"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -99,7 +1056,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -111,7 +1068,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -158,6 +1115,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -193,6 +1167,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -345,20 +1336,1007 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="23.25" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="1" max="1" width="1.75" style="4" customWidth="1"/>
+    <col min="2" max="2" width="7.625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="32.625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="7.25" style="3" customWidth="1"/>
+    <col min="5" max="5" width="8.125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="8.5" style="3" customWidth="1"/>
+    <col min="7" max="7" width="8.625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="7.5" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="4"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
+    <row r="1" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="B1" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="48" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="38" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="29.25" x14ac:dyDescent="0.5">
+      <c r="B2" s="1"/>
+      <c r="C2" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="26" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="B3" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="B4" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
+    </row>
+    <row r="5" spans="1:8" ht="24" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5" s="1"/>
+      <c r="C5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="B6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="7"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="B7" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="10"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="B8" s="8"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="10"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="B9" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="55"/>
+      <c r="F9" s="56" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="H9" s="59"/>
+    </row>
+    <row r="10" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="B10" s="52"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="57"/>
+      <c r="G10" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="24" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="10"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="30"/>
+      <c r="G11" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="H11" s="27" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="24" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="10"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="17"/>
+    </row>
+    <row r="13" spans="1:8" ht="24" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="10"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="17"/>
+    </row>
+    <row r="14" spans="1:8" ht="24" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="10"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="17"/>
+    </row>
+    <row r="15" spans="1:8" ht="24" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="10"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="17"/>
+    </row>
+    <row r="16" spans="1:8" ht="24" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="10"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="17"/>
+    </row>
+    <row r="17" spans="1:8" ht="24" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="10"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="17"/>
+    </row>
+    <row r="18" spans="1:8" ht="24" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="10"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="17"/>
+    </row>
+    <row r="19" spans="1:8" ht="24" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="10"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="17"/>
+    </row>
+    <row r="20" spans="1:8" ht="24" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="10"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="17"/>
+    </row>
+    <row r="21" spans="1:8" ht="24" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="10"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="17"/>
+    </row>
+    <row r="22" spans="1:8" ht="24" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="10"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="17"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="B23" s="14"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="17"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="B24" s="14"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="17"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="B25" s="14"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="17"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="B26" s="14"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="17"/>
+    </row>
+    <row r="27" spans="1:8" ht="24" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B27" s="18"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="22"/>
+    </row>
+    <row r="28" spans="1:8" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" spans="1:8" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B29" s="45" t="str">
+        <f>"( "&amp;BAHTTEXT(G29)&amp;" )"</f>
+        <v>( ศูนย์บาทถ้วน )</v>
+      </c>
+      <c r="C29" s="46"/>
+      <c r="D29" s="46"/>
+      <c r="E29" s="47"/>
+      <c r="F29" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G29" s="23">
+        <f>SUM(G11:G26)</f>
+        <v>0</v>
+      </c>
+      <c r="H29" s="28" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B30" s="1"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="B31" s="1"/>
+      <c r="C31" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="C32" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.5">
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.5">
+      <c r="C34" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.5">
+      <c r="B41" s="2"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <mergeCells count="10">
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:H9"/>
+  </mergeCells>
+  <pageMargins left="0.45" right="0" top="0.35433070866141703" bottom="0.2" header="0.31496062992126" footer="0.31496062992126"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:H41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="23.25" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="1" max="1" width="1.75" style="4" customWidth="1"/>
+    <col min="2" max="2" width="7.625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="32.625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="8.25" style="3" customWidth="1"/>
+    <col min="5" max="5" width="8.75" style="3" customWidth="1"/>
+    <col min="6" max="6" width="8.5" style="3" customWidth="1"/>
+    <col min="7" max="7" width="8.625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="7.5" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="B1" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="48" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="44" t="str">
+        <f>+ต้นฉบับ!H1</f>
+        <v xml:space="preserve"> เลขที่ BILLNUMBER</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="29.25" x14ac:dyDescent="0.5">
+      <c r="B2" s="1"/>
+      <c r="C2" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="26" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="B3" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="B4" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
+    </row>
+    <row r="5" spans="1:8" ht="24" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5" s="1"/>
+      <c r="C5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="1" t="str">
+        <f>+ต้นฉบับ!F5</f>
+        <v xml:space="preserve">      วันที่ BILLDATE</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="B6" s="5" t="str">
+        <f>+ต้นฉบับ!B6</f>
+        <v>นาม…NAME</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="7"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="B7" s="8" t="str">
+        <f>+ต้นฉบับ!B7</f>
+        <v>ที่อยู่..ADDRESS2</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="10"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="B8" s="8"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="10"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="B9" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="55"/>
+      <c r="F9" s="56" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="H9" s="59"/>
+    </row>
+    <row r="10" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A10" s="42"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="57"/>
+      <c r="G10" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="24" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="10"/>
+      <c r="B11" s="39">
+        <f>+ต้นฉบับ!B11</f>
+        <v>0</v>
+      </c>
+      <c r="C11" s="15" t="str">
+        <f>+ต้นฉบับ!C11</f>
+        <v>DETAIL</v>
+      </c>
+      <c r="D11" s="33" t="str">
+        <f>+ต้นฉบับ!D11</f>
+        <v>DELIVERYNUMBER</v>
+      </c>
+      <c r="E11" s="37" t="str">
+        <f>+ต้นฉบับ!E11</f>
+        <v>DELIVERYDATE</v>
+      </c>
+      <c r="F11" s="30">
+        <f>+ต้นฉบับ!F11</f>
+        <v>0</v>
+      </c>
+      <c r="G11" s="34" t="str">
+        <f>+ต้นฉบับ!G11</f>
+        <v>MONEY</v>
+      </c>
+      <c r="H11" s="27" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="24" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="10"/>
+      <c r="B12" s="40">
+        <f>+ต้นฉบับ!B12</f>
+        <v>0</v>
+      </c>
+      <c r="C12" s="15">
+        <f>+ต้นฉบับ!C12</f>
+        <v>0</v>
+      </c>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="30">
+        <f>+ต้นฉบับ!F12</f>
+        <v>0</v>
+      </c>
+      <c r="G12" s="30">
+        <f>+ต้นฉบับ!G12</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="17"/>
+    </row>
+    <row r="13" spans="1:8" ht="24" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="10"/>
+      <c r="B13" s="40">
+        <f>+ต้นฉบับ!B13</f>
+        <v>0</v>
+      </c>
+      <c r="C13" s="15">
+        <f>+ต้นฉบับ!C13</f>
+        <v>0</v>
+      </c>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="30">
+        <f>+ต้นฉบับ!F13</f>
+        <v>0</v>
+      </c>
+      <c r="G13" s="30">
+        <f>+ต้นฉบับ!G13</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="17"/>
+    </row>
+    <row r="14" spans="1:8" ht="24" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="10"/>
+      <c r="B14" s="40">
+        <f>+ต้นฉบับ!B14</f>
+        <v>0</v>
+      </c>
+      <c r="C14" s="15">
+        <f>+ต้นฉบับ!C14</f>
+        <v>0</v>
+      </c>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="30">
+        <f>+ต้นฉบับ!F14</f>
+        <v>0</v>
+      </c>
+      <c r="G14" s="30">
+        <f>+ต้นฉบับ!G14</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="17"/>
+    </row>
+    <row r="15" spans="1:8" ht="24" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="10"/>
+      <c r="B15" s="40">
+        <f>+ต้นฉบับ!B15</f>
+        <v>0</v>
+      </c>
+      <c r="C15" s="15">
+        <f>+ต้นฉบับ!C15</f>
+        <v>0</v>
+      </c>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="30">
+        <f>+ต้นฉบับ!F15</f>
+        <v>0</v>
+      </c>
+      <c r="G15" s="30">
+        <f>+ต้นฉบับ!G15</f>
+        <v>0</v>
+      </c>
+      <c r="H15" s="17"/>
+    </row>
+    <row r="16" spans="1:8" ht="24" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="10"/>
+      <c r="B16" s="40">
+        <f>+ต้นฉบับ!B16</f>
+        <v>0</v>
+      </c>
+      <c r="C16" s="15">
+        <f>+ต้นฉบับ!C16</f>
+        <v>0</v>
+      </c>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="30">
+        <f>+ต้นฉบับ!F16</f>
+        <v>0</v>
+      </c>
+      <c r="G16" s="30">
+        <f>+ต้นฉบับ!G16</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="17"/>
+    </row>
+    <row r="17" spans="1:8" ht="24" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="10"/>
+      <c r="B17" s="40">
+        <f>+ต้นฉบับ!B17</f>
+        <v>0</v>
+      </c>
+      <c r="C17" s="15">
+        <f>+ต้นฉบับ!C17</f>
+        <v>0</v>
+      </c>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="30">
+        <f>+ต้นฉบับ!F17</f>
+        <v>0</v>
+      </c>
+      <c r="G17" s="30">
+        <f>+ต้นฉบับ!G17</f>
+        <v>0</v>
+      </c>
+      <c r="H17" s="17"/>
+    </row>
+    <row r="18" spans="1:8" ht="24" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="10"/>
+      <c r="B18" s="40">
+        <f>+ต้นฉบับ!B18</f>
+        <v>0</v>
+      </c>
+      <c r="C18" s="15">
+        <f>+ต้นฉบับ!C18</f>
+        <v>0</v>
+      </c>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="30">
+        <f>+ต้นฉบับ!F18</f>
+        <v>0</v>
+      </c>
+      <c r="G18" s="30">
+        <f>+ต้นฉบับ!G18</f>
+        <v>0</v>
+      </c>
+      <c r="H18" s="17"/>
+    </row>
+    <row r="19" spans="1:8" ht="24" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="10"/>
+      <c r="B19" s="40">
+        <f>+ต้นฉบับ!B19</f>
+        <v>0</v>
+      </c>
+      <c r="C19" s="15">
+        <f>+ต้นฉบับ!C19</f>
+        <v>0</v>
+      </c>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="30">
+        <f>+ต้นฉบับ!F19</f>
+        <v>0</v>
+      </c>
+      <c r="G19" s="30">
+        <f>+ต้นฉบับ!G19</f>
+        <v>0</v>
+      </c>
+      <c r="H19" s="17"/>
+    </row>
+    <row r="20" spans="1:8" ht="24" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="10"/>
+      <c r="B20" s="40">
+        <f>+ต้นฉบับ!B20</f>
+        <v>0</v>
+      </c>
+      <c r="C20" s="15">
+        <f>+ต้นฉบับ!C20</f>
+        <v>0</v>
+      </c>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="29">
+        <f>+ต้นฉบับ!F20</f>
+        <v>0</v>
+      </c>
+      <c r="G20" s="30">
+        <f>+ต้นฉบับ!G20</f>
+        <v>0</v>
+      </c>
+      <c r="H20" s="17"/>
+    </row>
+    <row r="21" spans="1:8" ht="24" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="10"/>
+      <c r="B21" s="40">
+        <f>+ต้นฉบับ!B21</f>
+        <v>0</v>
+      </c>
+      <c r="C21" s="15">
+        <f>+ต้นฉบับ!C21</f>
+        <v>0</v>
+      </c>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="31">
+        <f>+ต้นฉบับ!F21</f>
+        <v>0</v>
+      </c>
+      <c r="G21" s="32">
+        <f>+ต้นฉบับ!G21</f>
+        <v>0</v>
+      </c>
+      <c r="H21" s="17"/>
+    </row>
+    <row r="22" spans="1:8" ht="24" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="10"/>
+      <c r="B22" s="41">
+        <f>+ต้นฉบับ!B22</f>
+        <v>0</v>
+      </c>
+      <c r="C22" s="15">
+        <f>+ต้นฉบับ!C22</f>
+        <v>0</v>
+      </c>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="16">
+        <f>+ต้นฉบับ!F22</f>
+        <v>0</v>
+      </c>
+      <c r="G22" s="30">
+        <f>+ต้นฉบับ!G22</f>
+        <v>0</v>
+      </c>
+      <c r="H22" s="17"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="B23" s="14">
+        <f>+ต้นฉบับ!B23</f>
+        <v>0</v>
+      </c>
+      <c r="C23" s="15">
+        <f>+ต้นฉบับ!C23</f>
+        <v>0</v>
+      </c>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="16">
+        <f>+ต้นฉบับ!F23</f>
+        <v>0</v>
+      </c>
+      <c r="G23" s="16">
+        <f>+ต้นฉบับ!G23</f>
+        <v>0</v>
+      </c>
+      <c r="H23" s="17"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="B24" s="14">
+        <f>+ต้นฉบับ!B24</f>
+        <v>0</v>
+      </c>
+      <c r="C24" s="15">
+        <f>+ต้นฉบับ!C24</f>
+        <v>0</v>
+      </c>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="16">
+        <f>+ต้นฉบับ!F24</f>
+        <v>0</v>
+      </c>
+      <c r="G24" s="16">
+        <f>+ต้นฉบับ!G24</f>
+        <v>0</v>
+      </c>
+      <c r="H24" s="17"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="B25" s="14">
+        <f>+ต้นฉบับ!B25</f>
+        <v>0</v>
+      </c>
+      <c r="C25" s="15">
+        <f>+ต้นฉบับ!C25</f>
+        <v>0</v>
+      </c>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="16">
+        <f>+ต้นฉบับ!F25</f>
+        <v>0</v>
+      </c>
+      <c r="G25" s="16">
+        <f>+ต้นฉบับ!G25</f>
+        <v>0</v>
+      </c>
+      <c r="H25" s="17"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="B26" s="14">
+        <f>+ต้นฉบับ!B26</f>
+        <v>0</v>
+      </c>
+      <c r="C26" s="15">
+        <f>+ต้นฉบับ!C26</f>
+        <v>0</v>
+      </c>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="16">
+        <f>+ต้นฉบับ!F26</f>
+        <v>0</v>
+      </c>
+      <c r="G26" s="16">
+        <f>+ต้นฉบับ!G26</f>
+        <v>0</v>
+      </c>
+      <c r="H26" s="17"/>
+    </row>
+    <row r="27" spans="1:8" ht="24" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B27" s="18">
+        <f>+ต้นฉบับ!B27</f>
+        <v>0</v>
+      </c>
+      <c r="C27" s="43">
+        <f>+ต้นฉบับ!C27</f>
+        <v>0</v>
+      </c>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="20">
+        <f>+ต้นฉบับ!F27</f>
+        <v>0</v>
+      </c>
+      <c r="G27" s="21">
+        <f>+ต้นฉบับ!G27</f>
+        <v>0</v>
+      </c>
+      <c r="H27" s="22"/>
+    </row>
+    <row r="28" spans="1:8" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" spans="1:8" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B29" s="45" t="str">
+        <f>"( "&amp;BAHTTEXT(G29)&amp;" )"</f>
+        <v>( ศูนย์บาทถ้วน )</v>
+      </c>
+      <c r="C29" s="46"/>
+      <c r="D29" s="46"/>
+      <c r="E29" s="47"/>
+      <c r="F29" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G29" s="23">
+        <f>+ต้นฉบับ!G29</f>
+        <v>0</v>
+      </c>
+      <c r="H29" s="28" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B30" s="1"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="B31" s="1"/>
+      <c r="C31" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="C32" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.5">
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.5">
+      <c r="C34" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.5">
+      <c r="B41" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:H9"/>
+  </mergeCells>
+  <pageMargins left="0.261811024" right="0.16" top="0.35433070866141703" bottom="0.2" header="0.31496062992126" footer="0.31496062992126"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/sample.xlsx
+++ b/sample.xlsx
@@ -1,25 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ifpotsawat\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PhasitWo\Desktop\Folders\ElectronProject\mydoc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06BA6AAE-9149-4302-B593-ED50D30E7E83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69F347DC-EAF1-425A-950F-02C9C4F6B57A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="945" yWindow="885" windowWidth="27495" windowHeight="14670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4020" yWindow="1950" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ต้นฉบับ" sheetId="5" r:id="rId1"/>
     <sheet name="สำเนา" sheetId="7" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -123,13 +134,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="187" formatCode="_-&quot;฿&quot;* #,##0.00_-;\-&quot;฿&quot;* #,##0.00_-;_-&quot;฿&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-&quot;฿&quot;* #,##0.00_-;\-&quot;฿&quot;* #,##0.00_-;_-&quot;฿&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -137,7 +148,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -508,9 +519,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="187" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -522,15 +533,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="187" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="187" fontId="4" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -586,28 +596,19 @@
     <xf numFmtId="3" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="187" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -656,6 +657,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1339,73 +1343,73 @@
   <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="B3" sqref="B3:H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="23.25" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="23.25"/>
   <cols>
-    <col min="1" max="1" width="1.75" style="4" customWidth="1"/>
-    <col min="2" max="2" width="7.625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="32.625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="7.25" style="3" customWidth="1"/>
-    <col min="5" max="5" width="8.125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="8.5" style="3" customWidth="1"/>
-    <col min="7" max="7" width="8.625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="7.5" style="4" customWidth="1"/>
+    <col min="1" max="1" width="1.7109375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="7.5703125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="32.5703125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="7.28515625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="8.42578125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="8.5703125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="7.42578125" style="4" customWidth="1"/>
     <col min="9" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="B1" s="24" t="s">
+    <row r="1" spans="1:8" ht="31.5">
+      <c r="B1" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="48" t="s">
+      <c r="C1" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="38" t="s">
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="56" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="29.25" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:8" ht="29.25">
       <c r="B2" s="1"/>
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="26" t="s">
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="25" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="B3" s="50" t="s">
+    <row r="3" spans="1:8">
+      <c r="B3" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="B4" s="50" t="s">
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="B4" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="50"/>
-    </row>
-    <row r="5" spans="1:8" ht="24" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+    </row>
+    <row r="5" spans="1:8" ht="24" thickBot="1">
       <c r="B5" s="1"/>
       <c r="C5" s="4" t="s">
         <v>6</v>
@@ -1416,7 +1420,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:8">
       <c r="B6" s="5" t="s">
         <v>24</v>
       </c>
@@ -1427,265 +1431,255 @@
       <c r="G6" s="6"/>
       <c r="H6" s="7"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:8">
       <c r="B7" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="10"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="H7" s="9"/>
+    </row>
+    <row r="8" spans="1:8">
       <c r="B8" s="8"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="10"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="B9" s="51" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="53" t="s">
+      <c r="H8" s="9"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="B9" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="55" t="s">
+      <c r="D9" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="55"/>
-      <c r="F9" s="56" t="s">
+      <c r="E9" s="51"/>
+      <c r="F9" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="58" t="s">
+      <c r="G9" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="H9" s="59"/>
-    </row>
-    <row r="10" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="B10" s="52"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="25" t="s">
+      <c r="H9" s="55"/>
+    </row>
+    <row r="10" spans="1:8" s="12" customFormat="1">
+      <c r="B10" s="48"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="25" t="s">
+      <c r="E10" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="57"/>
-      <c r="G10" s="11" t="s">
+      <c r="F10" s="53"/>
+      <c r="G10" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="H10" s="12" t="s">
+      <c r="H10" s="11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="10"/>
-      <c r="B11" s="39"/>
-      <c r="C11" s="15" t="s">
+    <row r="11" spans="1:8" ht="24">
+      <c r="A11" s="9"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="33" t="s">
+      <c r="D11" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="37" t="s">
+      <c r="E11" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="30"/>
-      <c r="G11" s="34" t="s">
+      <c r="F11" s="29"/>
+      <c r="G11" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="H11" s="27" t="s">
+      <c r="H11" s="26" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="10"/>
-      <c r="B12" s="40"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="17"/>
-    </row>
-    <row r="13" spans="1:8" ht="24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="10"/>
-      <c r="B13" s="40"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="17"/>
-    </row>
-    <row r="14" spans="1:8" ht="24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="10"/>
-      <c r="B14" s="40"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="17"/>
-    </row>
-    <row r="15" spans="1:8" ht="24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="10"/>
-      <c r="B15" s="40"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="17"/>
-    </row>
-    <row r="16" spans="1:8" ht="24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="10"/>
-      <c r="B16" s="40"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="17"/>
-    </row>
-    <row r="17" spans="1:8" ht="24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="10"/>
-      <c r="B17" s="40"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="17"/>
-    </row>
-    <row r="18" spans="1:8" ht="24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="10"/>
-      <c r="B18" s="40"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="17"/>
-    </row>
-    <row r="19" spans="1:8" ht="24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="10"/>
-      <c r="B19" s="40"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="17"/>
-    </row>
-    <row r="20" spans="1:8" ht="24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="10"/>
-      <c r="B20" s="40"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="17"/>
-    </row>
-    <row r="21" spans="1:8" ht="24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="10"/>
-      <c r="B21" s="40"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="32"/>
-      <c r="H21" s="17"/>
-    </row>
-    <row r="22" spans="1:8" ht="24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="10"/>
-      <c r="B22" s="41"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="17"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="B23" s="14"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="17"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="B24" s="14"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="17"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="B25" s="14"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="17"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="B26" s="14"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="17"/>
-    </row>
-    <row r="27" spans="1:8" ht="24" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B27" s="18"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="22"/>
-    </row>
-    <row r="28" spans="1:8" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:8" ht="24">
+      <c r="A12" s="9"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="16"/>
+    </row>
+    <row r="13" spans="1:8" ht="24">
+      <c r="A13" s="9"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="16"/>
+    </row>
+    <row r="14" spans="1:8" ht="24">
+      <c r="A14" s="9"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="16"/>
+    </row>
+    <row r="15" spans="1:8" ht="24">
+      <c r="A15" s="9"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="16"/>
+    </row>
+    <row r="16" spans="1:8" ht="24">
+      <c r="A16" s="9"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="16"/>
+    </row>
+    <row r="17" spans="1:8" ht="24">
+      <c r="A17" s="9"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="16"/>
+    </row>
+    <row r="18" spans="1:8" ht="24">
+      <c r="A18" s="9"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="16"/>
+    </row>
+    <row r="19" spans="1:8" ht="24">
+      <c r="A19" s="9"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="16"/>
+    </row>
+    <row r="20" spans="1:8" ht="24">
+      <c r="A20" s="9"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="16"/>
+    </row>
+    <row r="21" spans="1:8" ht="24">
+      <c r="A21" s="9"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="16"/>
+    </row>
+    <row r="22" spans="1:8" ht="24">
+      <c r="A22" s="9"/>
+      <c r="B22" s="37"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="16"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="B23" s="13"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="16"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="B24" s="13"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="16"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="B25" s="13"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="16"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="B26" s="13"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="16"/>
+    </row>
+    <row r="27" spans="1:8" ht="24" thickBot="1">
+      <c r="B27" s="17"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="21"/>
+    </row>
+    <row r="28" spans="1:8" ht="9" customHeight="1" thickBot="1">
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
     </row>
-    <row r="29" spans="1:8" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B29" s="45" t="str">
+    <row r="29" spans="1:8" ht="21.75" customHeight="1" thickBot="1">
+      <c r="B29" s="41" t="str">
         <f>"( "&amp;BAHTTEXT(G29)&amp;" )"</f>
         <v>( ศูนย์บาทถ้วน )</v>
       </c>
-      <c r="C29" s="46"/>
-      <c r="D29" s="46"/>
-      <c r="E29" s="47"/>
+      <c r="C29" s="42"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="43"/>
       <c r="F29" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G29" s="23">
+      <c r="G29" s="22">
         <f>SUM(G11:G26)</f>
         <v>0</v>
       </c>
-      <c r="H29" s="28" t="s">
+      <c r="H29" s="27" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:8" ht="12" customHeight="1">
       <c r="B30" s="1"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:8">
       <c r="B31" s="1"/>
       <c r="C31" s="1" t="s">
         <v>19</v>
@@ -1693,26 +1687,26 @@
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:8">
       <c r="C32" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.5">
+    <row r="33" spans="2:5">
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.5">
+    <row r="34" spans="2:5">
       <c r="C34" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.5">
+    <row r="41" spans="2:5">
       <c r="B41" s="2"/>
     </row>
   </sheetData>
@@ -1742,71 +1736,71 @@
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="23.25" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="23.25"/>
   <cols>
-    <col min="1" max="1" width="1.75" style="4" customWidth="1"/>
-    <col min="2" max="2" width="7.625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="32.625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="8.25" style="3" customWidth="1"/>
-    <col min="5" max="5" width="8.75" style="3" customWidth="1"/>
-    <col min="6" max="6" width="8.5" style="3" customWidth="1"/>
-    <col min="7" max="7" width="8.625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="7.5" style="4" customWidth="1"/>
+    <col min="1" max="1" width="1.7109375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="7.5703125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="32.5703125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="8.28515625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="8.42578125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="8.5703125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="7.42578125" style="4" customWidth="1"/>
     <col min="9" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="B1" s="35" t="s">
+    <row r="1" spans="1:8" ht="31.5">
+      <c r="B1" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="48" t="s">
+      <c r="C1" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="44" t="str">
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="40" t="str">
         <f>+ต้นฉบับ!H1</f>
         <v xml:space="preserve"> เลขที่ BILLNUMBER</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="29.25" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:8" ht="29.25">
       <c r="B2" s="1"/>
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="26" t="s">
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="25" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="B3" s="50" t="s">
+    <row r="3" spans="1:8">
+      <c r="B3" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="B4" s="50" t="s">
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="B4" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="50"/>
-    </row>
-    <row r="5" spans="1:8" ht="24" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+    </row>
+    <row r="5" spans="1:8" ht="24" thickBot="1">
       <c r="B5" s="1"/>
       <c r="C5" s="4" t="s">
         <v>6</v>
@@ -1818,7 +1812,7 @@
         <v xml:space="preserve">      วันที่ BILLDATE</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:8">
       <c r="B6" s="5" t="str">
         <f>+ต้นฉบับ!B6</f>
         <v>นาม…NAME</v>
@@ -1830,469 +1824,459 @@
       <c r="G6" s="6"/>
       <c r="H6" s="7"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:8">
       <c r="B7" s="8" t="str">
         <f>+ต้นฉบับ!B7</f>
         <v>ที่อยู่..ADDRESS2</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="10"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="H7" s="9"/>
+    </row>
+    <row r="8" spans="1:8">
       <c r="B8" s="8"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="10"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="B9" s="51" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="53" t="s">
+      <c r="H8" s="9"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="B9" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="55" t="s">
+      <c r="D9" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="55"/>
-      <c r="F9" s="56" t="s">
+      <c r="E9" s="51"/>
+      <c r="F9" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="58" t="s">
+      <c r="G9" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="H9" s="59"/>
-    </row>
-    <row r="10" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="42"/>
-      <c r="B10" s="54"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="36" t="s">
+      <c r="H9" s="55"/>
+    </row>
+    <row r="10" spans="1:8" s="12" customFormat="1">
+      <c r="A10" s="38"/>
+      <c r="B10" s="50"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="36" t="s">
+      <c r="E10" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="57"/>
-      <c r="G10" s="11" t="s">
+      <c r="F10" s="53"/>
+      <c r="G10" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="H10" s="12" t="s">
+      <c r="H10" s="11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="10"/>
-      <c r="B11" s="39">
+    <row r="11" spans="1:8" ht="24">
+      <c r="A11" s="9"/>
+      <c r="B11" s="35">
         <f>+ต้นฉบับ!B11</f>
         <v>0</v>
       </c>
-      <c r="C11" s="15" t="str">
+      <c r="C11" s="14" t="str">
         <f>+ต้นฉบับ!C11</f>
         <v>DETAIL</v>
       </c>
-      <c r="D11" s="33" t="str">
+      <c r="D11" s="32" t="str">
         <f>+ต้นฉบับ!D11</f>
         <v>DELIVERYNUMBER</v>
       </c>
-      <c r="E11" s="37" t="str">
+      <c r="E11" s="34" t="str">
         <f>+ต้นฉบับ!E11</f>
         <v>DELIVERYDATE</v>
       </c>
-      <c r="F11" s="30">
+      <c r="F11" s="29">
         <f>+ต้นฉบับ!F11</f>
         <v>0</v>
       </c>
-      <c r="G11" s="34" t="str">
+      <c r="G11" s="33" t="str">
         <f>+ต้นฉบับ!G11</f>
         <v>MONEY</v>
       </c>
-      <c r="H11" s="27" t="s">
+      <c r="H11" s="26" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="10"/>
-      <c r="B12" s="40">
+    <row r="12" spans="1:8" ht="24">
+      <c r="A12" s="9"/>
+      <c r="B12" s="36">
         <f>+ต้นฉบับ!B12</f>
         <v>0</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="14">
         <f>+ต้นฉบับ!C12</f>
         <v>0</v>
       </c>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="30">
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="29">
         <f>+ต้นฉบับ!F12</f>
         <v>0</v>
       </c>
-      <c r="G12" s="30">
+      <c r="G12" s="29">
         <f>+ต้นฉบับ!G12</f>
         <v>0</v>
       </c>
-      <c r="H12" s="17"/>
-    </row>
-    <row r="13" spans="1:8" ht="24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="10"/>
-      <c r="B13" s="40">
+      <c r="H12" s="16"/>
+    </row>
+    <row r="13" spans="1:8" ht="24">
+      <c r="A13" s="9"/>
+      <c r="B13" s="36">
         <f>+ต้นฉบับ!B13</f>
         <v>0</v>
       </c>
-      <c r="C13" s="15">
+      <c r="C13" s="14">
         <f>+ต้นฉบับ!C13</f>
         <v>0</v>
       </c>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="30">
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="29">
         <f>+ต้นฉบับ!F13</f>
         <v>0</v>
       </c>
-      <c r="G13" s="30">
+      <c r="G13" s="29">
         <f>+ต้นฉบับ!G13</f>
         <v>0</v>
       </c>
-      <c r="H13" s="17"/>
-    </row>
-    <row r="14" spans="1:8" ht="24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="10"/>
-      <c r="B14" s="40">
+      <c r="H13" s="16"/>
+    </row>
+    <row r="14" spans="1:8" ht="24">
+      <c r="A14" s="9"/>
+      <c r="B14" s="36">
         <f>+ต้นฉบับ!B14</f>
         <v>0</v>
       </c>
-      <c r="C14" s="15">
+      <c r="C14" s="14">
         <f>+ต้นฉบับ!C14</f>
         <v>0</v>
       </c>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="30">
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="29">
         <f>+ต้นฉบับ!F14</f>
         <v>0</v>
       </c>
-      <c r="G14" s="30">
+      <c r="G14" s="29">
         <f>+ต้นฉบับ!G14</f>
         <v>0</v>
       </c>
-      <c r="H14" s="17"/>
-    </row>
-    <row r="15" spans="1:8" ht="24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="10"/>
-      <c r="B15" s="40">
+      <c r="H14" s="16"/>
+    </row>
+    <row r="15" spans="1:8" ht="24">
+      <c r="A15" s="9"/>
+      <c r="B15" s="36">
         <f>+ต้นฉบับ!B15</f>
         <v>0</v>
       </c>
-      <c r="C15" s="15">
+      <c r="C15" s="14">
         <f>+ต้นฉบับ!C15</f>
         <v>0</v>
       </c>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="30">
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="29">
         <f>+ต้นฉบับ!F15</f>
         <v>0</v>
       </c>
-      <c r="G15" s="30">
+      <c r="G15" s="29">
         <f>+ต้นฉบับ!G15</f>
         <v>0</v>
       </c>
-      <c r="H15" s="17"/>
-    </row>
-    <row r="16" spans="1:8" ht="24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="10"/>
-      <c r="B16" s="40">
+      <c r="H15" s="16"/>
+    </row>
+    <row r="16" spans="1:8" ht="24">
+      <c r="A16" s="9"/>
+      <c r="B16" s="36">
         <f>+ต้นฉบับ!B16</f>
         <v>0</v>
       </c>
-      <c r="C16" s="15">
+      <c r="C16" s="14">
         <f>+ต้นฉบับ!C16</f>
         <v>0</v>
       </c>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="30">
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="29">
         <f>+ต้นฉบับ!F16</f>
         <v>0</v>
       </c>
-      <c r="G16" s="30">
+      <c r="G16" s="29">
         <f>+ต้นฉบับ!G16</f>
         <v>0</v>
       </c>
-      <c r="H16" s="17"/>
-    </row>
-    <row r="17" spans="1:8" ht="24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="10"/>
-      <c r="B17" s="40">
+      <c r="H16" s="16"/>
+    </row>
+    <row r="17" spans="1:8" ht="24">
+      <c r="A17" s="9"/>
+      <c r="B17" s="36">
         <f>+ต้นฉบับ!B17</f>
         <v>0</v>
       </c>
-      <c r="C17" s="15">
+      <c r="C17" s="14">
         <f>+ต้นฉบับ!C17</f>
         <v>0</v>
       </c>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="30">
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="29">
         <f>+ต้นฉบับ!F17</f>
         <v>0</v>
       </c>
-      <c r="G17" s="30">
+      <c r="G17" s="29">
         <f>+ต้นฉบับ!G17</f>
         <v>0</v>
       </c>
-      <c r="H17" s="17"/>
-    </row>
-    <row r="18" spans="1:8" ht="24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="10"/>
-      <c r="B18" s="40">
+      <c r="H17" s="16"/>
+    </row>
+    <row r="18" spans="1:8" ht="24">
+      <c r="A18" s="9"/>
+      <c r="B18" s="36">
         <f>+ต้นฉบับ!B18</f>
         <v>0</v>
       </c>
-      <c r="C18" s="15">
+      <c r="C18" s="14">
         <f>+ต้นฉบับ!C18</f>
         <v>0</v>
       </c>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="30">
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="29">
         <f>+ต้นฉบับ!F18</f>
         <v>0</v>
       </c>
-      <c r="G18" s="30">
+      <c r="G18" s="29">
         <f>+ต้นฉบับ!G18</f>
         <v>0</v>
       </c>
-      <c r="H18" s="17"/>
-    </row>
-    <row r="19" spans="1:8" ht="24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="10"/>
-      <c r="B19" s="40">
+      <c r="H18" s="16"/>
+    </row>
+    <row r="19" spans="1:8" ht="24">
+      <c r="A19" s="9"/>
+      <c r="B19" s="36">
         <f>+ต้นฉบับ!B19</f>
         <v>0</v>
       </c>
-      <c r="C19" s="15">
+      <c r="C19" s="14">
         <f>+ต้นฉบับ!C19</f>
         <v>0</v>
       </c>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="30">
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="29">
         <f>+ต้นฉบับ!F19</f>
         <v>0</v>
       </c>
-      <c r="G19" s="30">
+      <c r="G19" s="29">
         <f>+ต้นฉบับ!G19</f>
         <v>0</v>
       </c>
-      <c r="H19" s="17"/>
-    </row>
-    <row r="20" spans="1:8" ht="24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="10"/>
-      <c r="B20" s="40">
+      <c r="H19" s="16"/>
+    </row>
+    <row r="20" spans="1:8" ht="24">
+      <c r="A20" s="9"/>
+      <c r="B20" s="36">
         <f>+ต้นฉบับ!B20</f>
         <v>0</v>
       </c>
-      <c r="C20" s="15">
+      <c r="C20" s="14">
         <f>+ต้นฉบับ!C20</f>
         <v>0</v>
       </c>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="29">
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="28">
         <f>+ต้นฉบับ!F20</f>
         <v>0</v>
       </c>
-      <c r="G20" s="30">
+      <c r="G20" s="29">
         <f>+ต้นฉบับ!G20</f>
         <v>0</v>
       </c>
-      <c r="H20" s="17"/>
-    </row>
-    <row r="21" spans="1:8" ht="24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="10"/>
-      <c r="B21" s="40">
+      <c r="H20" s="16"/>
+    </row>
+    <row r="21" spans="1:8" ht="24">
+      <c r="A21" s="9"/>
+      <c r="B21" s="36">
         <f>+ต้นฉบับ!B21</f>
         <v>0</v>
       </c>
-      <c r="C21" s="15">
+      <c r="C21" s="14">
         <f>+ต้นฉบับ!C21</f>
         <v>0</v>
       </c>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="31">
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="30">
         <f>+ต้นฉบับ!F21</f>
         <v>0</v>
       </c>
-      <c r="G21" s="32">
+      <c r="G21" s="31">
         <f>+ต้นฉบับ!G21</f>
         <v>0</v>
       </c>
-      <c r="H21" s="17"/>
-    </row>
-    <row r="22" spans="1:8" ht="24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="10"/>
-      <c r="B22" s="41">
+      <c r="H21" s="16"/>
+    </row>
+    <row r="22" spans="1:8" ht="24">
+      <c r="A22" s="9"/>
+      <c r="B22" s="37">
         <f>+ต้นฉบับ!B22</f>
         <v>0</v>
       </c>
-      <c r="C22" s="15">
+      <c r="C22" s="14">
         <f>+ต้นฉบับ!C22</f>
         <v>0</v>
       </c>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="16">
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="15">
         <f>+ต้นฉบับ!F22</f>
         <v>0</v>
       </c>
-      <c r="G22" s="30">
+      <c r="G22" s="29">
         <f>+ต้นฉบับ!G22</f>
         <v>0</v>
       </c>
-      <c r="H22" s="17"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="B23" s="14">
+      <c r="H22" s="16"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="B23" s="13">
         <f>+ต้นฉบับ!B23</f>
         <v>0</v>
       </c>
-      <c r="C23" s="15">
+      <c r="C23" s="14">
         <f>+ต้นฉบับ!C23</f>
         <v>0</v>
       </c>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="16">
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="15">
         <f>+ต้นฉบับ!F23</f>
         <v>0</v>
       </c>
-      <c r="G23" s="16">
+      <c r="G23" s="15">
         <f>+ต้นฉบับ!G23</f>
         <v>0</v>
       </c>
-      <c r="H23" s="17"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="B24" s="14">
+      <c r="H23" s="16"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="B24" s="13">
         <f>+ต้นฉบับ!B24</f>
         <v>0</v>
       </c>
-      <c r="C24" s="15">
+      <c r="C24" s="14">
         <f>+ต้นฉบับ!C24</f>
         <v>0</v>
       </c>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="16">
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="15">
         <f>+ต้นฉบับ!F24</f>
         <v>0</v>
       </c>
-      <c r="G24" s="16">
+      <c r="G24" s="15">
         <f>+ต้นฉบับ!G24</f>
         <v>0</v>
       </c>
-      <c r="H24" s="17"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="B25" s="14">
+      <c r="H24" s="16"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="B25" s="13">
         <f>+ต้นฉบับ!B25</f>
         <v>0</v>
       </c>
-      <c r="C25" s="15">
+      <c r="C25" s="14">
         <f>+ต้นฉบับ!C25</f>
         <v>0</v>
       </c>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="16">
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="15">
         <f>+ต้นฉบับ!F25</f>
         <v>0</v>
       </c>
-      <c r="G25" s="16">
+      <c r="G25" s="15">
         <f>+ต้นฉบับ!G25</f>
         <v>0</v>
       </c>
-      <c r="H25" s="17"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="B26" s="14">
+      <c r="H25" s="16"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="B26" s="13">
         <f>+ต้นฉบับ!B26</f>
         <v>0</v>
       </c>
-      <c r="C26" s="15">
+      <c r="C26" s="14">
         <f>+ต้นฉบับ!C26</f>
         <v>0</v>
       </c>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="16">
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="15">
         <f>+ต้นฉบับ!F26</f>
         <v>0</v>
       </c>
-      <c r="G26" s="16">
+      <c r="G26" s="15">
         <f>+ต้นฉบับ!G26</f>
         <v>0</v>
       </c>
-      <c r="H26" s="17"/>
-    </row>
-    <row r="27" spans="1:8" ht="24" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B27" s="18">
+      <c r="H26" s="16"/>
+    </row>
+    <row r="27" spans="1:8" ht="24" thickBot="1">
+      <c r="B27" s="17">
         <f>+ต้นฉบับ!B27</f>
         <v>0</v>
       </c>
-      <c r="C27" s="43">
+      <c r="C27" s="39">
         <f>+ต้นฉบับ!C27</f>
         <v>0</v>
       </c>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="20">
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="19">
         <f>+ต้นฉบับ!F27</f>
         <v>0</v>
       </c>
-      <c r="G27" s="21">
+      <c r="G27" s="20">
         <f>+ต้นฉบับ!G27</f>
         <v>0</v>
       </c>
-      <c r="H27" s="22"/>
-    </row>
-    <row r="28" spans="1:8" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H27" s="21"/>
+    </row>
+    <row r="28" spans="1:8" ht="9" customHeight="1" thickBot="1">
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
     </row>
-    <row r="29" spans="1:8" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B29" s="45" t="str">
+    <row r="29" spans="1:8" ht="21.75" customHeight="1" thickBot="1">
+      <c r="B29" s="41" t="str">
         <f>"( "&amp;BAHTTEXT(G29)&amp;" )"</f>
         <v>( ศูนย์บาทถ้วน )</v>
       </c>
-      <c r="C29" s="46"/>
-      <c r="D29" s="46"/>
-      <c r="E29" s="47"/>
+      <c r="C29" s="42"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="43"/>
       <c r="F29" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G29" s="23">
+      <c r="G29" s="22">
         <f>+ต้นฉบับ!G29</f>
         <v>0</v>
       </c>
-      <c r="H29" s="28" t="s">
+      <c r="H29" s="27" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:8" ht="12" customHeight="1">
       <c r="B30" s="1"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:8">
       <c r="B31" s="1"/>
       <c r="C31" s="1" t="s">
         <v>19</v>
@@ -2300,26 +2284,26 @@
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:8">
       <c r="C32" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.5">
+    <row r="33" spans="2:5">
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.5">
+    <row r="34" spans="2:5">
       <c r="C34" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.5">
+    <row r="41" spans="2:5">
       <c r="B41" s="2"/>
     </row>
   </sheetData>
